--- a/Price_Study/Spain/summary_blueberry.xlsx
+++ b/Price_Study/Spain/summary_blueberry.xlsx
@@ -398,33 +398,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,22 +429,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.324267734420673</v>
+        <v>2.922766997142388</v>
       </c>
       <c r="D2">
-        <v>2.942210084985116</v>
+        <v>3.306672764223181</v>
       </c>
       <c r="E2">
-        <v>3.306672764223181</v>
+        <v>3.682053159252038</v>
       </c>
       <c r="F2">
-        <v>3.539005115574545</v>
-      </c>
-      <c r="G2">
-        <v>6.71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -455,22 +449,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.121414253186206</v>
+        <v>4.196681543365449</v>
       </c>
       <c r="D3">
-        <v>4.489199347081068</v>
+        <v>5.380240645152319</v>
       </c>
       <c r="E3">
-        <v>5.380240645152319</v>
+        <v>5.965051755218097</v>
       </c>
       <c r="F3">
-        <v>5.245735854262728</v>
-      </c>
-      <c r="G3">
-        <v>6.889999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6.119378603558825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -478,22 +469,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.768820761609059</v>
+        <v>7.885202913830294</v>
       </c>
       <c r="D4">
-        <v>8.357836903751876</v>
+        <v>7.730711008615206</v>
       </c>
       <c r="E4">
-        <v>7.730711008615206</v>
+        <v>7.115699172182123</v>
       </c>
       <c r="F4">
-        <v>7.143040392967862</v>
-      </c>
-      <c r="G4">
-        <v>7.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>6.682026959004283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -501,22 +489,19 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
       <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -524,22 +509,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9.394889575289575</v>
+        <v>8.776804661458996</v>
       </c>
       <c r="D6">
-        <v>8.776804661458996</v>
+        <v>8.995688842001071</v>
       </c>
       <c r="E6">
-        <v>8.995688842001071</v>
+        <v>7.890560994867744</v>
       </c>
       <c r="F6">
-        <v>7.890560994867744</v>
-      </c>
-      <c r="G6">
-        <v>7.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>7.313857748729716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -547,22 +529,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.259755259005121</v>
+        <v>5.098955261033059</v>
       </c>
       <c r="D7">
-        <v>5.419398830469511</v>
+        <v>5.593250257518018</v>
       </c>
       <c r="E7">
-        <v>5.593250257518018</v>
+        <v>5.306426188541749</v>
       </c>
       <c r="F7">
-        <v>5.232148635520834</v>
-      </c>
-      <c r="G7">
-        <v>6.855999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>5.68775654336231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -570,22 +549,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3.495246166843894</v>
+        <v>2.541968329372073</v>
       </c>
       <c r="D8">
-        <v>2.541968329372073</v>
+        <v>2.807332433761795</v>
       </c>
       <c r="E8">
-        <v>2.807332433761795</v>
+        <v>2.227396371871529</v>
       </c>
       <c r="F8">
-        <v>2.227396371871529</v>
-      </c>
-      <c r="G8">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,19 +569,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1.416704457683511</v>
+        <v>2.519352433593133</v>
       </c>
       <c r="D9">
-        <v>2.595539550289276</v>
+        <v>2.219988614151075</v>
       </c>
       <c r="E9">
-        <v>2.219988614151075</v>
+        <v>1.981494588585559</v>
       </c>
       <c r="F9">
-        <v>1.988241591266751</v>
-      </c>
-      <c r="G9">
-        <v>0.2913417237540821</v>
+        <v>1.35705221483896</v>
       </c>
     </row>
   </sheetData>
